--- a/app/skinGui/iniGenerators/torso_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/torso_ini_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13455" yWindow="-15" windowWidth="11685" windowHeight="12120" activeTab="5"/>
+    <workbookView xWindow="13455" yWindow="-15" windowWidth="11685" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="right upper" sheetId="4" r:id="rId1"/>
@@ -15516,8 +15516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15766,7 +15766,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="O7" s="42">
         <v>148</v>
@@ -15946,7 +15946,7 @@
       </c>
       <c r="C13" s="24">
         <f t="shared" ref="C13:C14" si="1">((+O13*COS($N$3)-P13*SIN($N$3))*$R$3)+$N$7</f>
-        <v>-33.602540378443777</v>
+        <v>-17.602540378443777</v>
       </c>
       <c r="D13" s="24">
         <f t="shared" ref="D13:D14" si="2">((O13*SIN($N$3)+P13*COS($N$3))*$R$4)+$N$9</f>
@@ -15994,7 +15994,7 @@
       </c>
       <c r="C14" s="24">
         <f t="shared" si="1"/>
-        <v>-49.602540378443749</v>
+        <v>-33.602540378443749</v>
       </c>
       <c r="D14" s="24">
         <f t="shared" si="2"/>
@@ -16042,7 +16042,7 @@
       </c>
       <c r="C15" s="24">
         <f t="shared" ref="C15:C23" si="6">((+O15*COS($N$3)-P15*SIN($N$3))*$R$3)+$N$7</f>
-        <v>-65.602540378443749</v>
+        <v>-49.602540378443749</v>
       </c>
       <c r="D15" s="24">
         <f t="shared" ref="D15:D23" si="7">((O15*SIN($N$3)+P15*COS($N$3))*$R$4)+$N$9</f>
@@ -16090,7 +16090,7 @@
       </c>
       <c r="C16" s="24">
         <f t="shared" si="6"/>
-        <v>-65.60254037844372</v>
+        <v>-49.60254037844372</v>
       </c>
       <c r="D16" s="24">
         <f t="shared" si="7"/>
@@ -16196,7 +16196,7 @@
       </c>
       <c r="C19" s="24">
         <f t="shared" si="6"/>
-        <v>-49.602540378443777</v>
+        <v>-33.602540378443777</v>
       </c>
       <c r="D19" s="24">
         <f t="shared" si="7"/>
@@ -16244,7 +16244,7 @@
       </c>
       <c r="C20" s="24">
         <f t="shared" si="6"/>
-        <v>-65.602540378443763</v>
+        <v>-49.602540378443763</v>
       </c>
       <c r="D20" s="24">
         <f t="shared" si="7"/>
@@ -16350,7 +16350,7 @@
       </c>
       <c r="C23" s="24">
         <f t="shared" si="6"/>
-        <v>-33.602540378443791</v>
+        <v>-17.602540378443791</v>
       </c>
       <c r="D23" s="24">
         <f t="shared" si="7"/>
@@ -18856,7 +18856,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A4" sqref="A4:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="C4" s="24">
         <f t="shared" ref="C4:C5" si="1">((+O4*COS($N$3)-P4*SIN($N$3))*$R$3)+$N$7</f>
-        <v>30.397459621556152</v>
+        <v>47.397459621556152</v>
       </c>
       <c r="D4" s="24">
         <f t="shared" ref="D4:D5" si="2">((O4*SIN($N$3)+P4*COS($N$3))*$R$4)+$N$9</f>
@@ -19039,7 +19039,7 @@
       </c>
       <c r="C5" s="32">
         <f t="shared" si="1"/>
-        <v>30.397459621556152</v>
+        <v>47.397459621556152</v>
       </c>
       <c r="D5" s="32">
         <f t="shared" si="2"/>
@@ -19145,7 +19145,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="O7" s="42">
         <v>148</v>
@@ -19265,7 +19265,7 @@
       </c>
       <c r="C11" s="32">
         <f t="shared" ref="C11:C24" si="6">((+O11*COS($N$3)-P11*SIN($N$3))*$R$3)+$N$7</f>
-        <v>14.397459621556209</v>
+        <v>31.397459621556209</v>
       </c>
       <c r="D11" s="32">
         <f t="shared" ref="D11:D24" si="7">((O11*SIN($N$3)+P11*COS($N$3))*$R$4)+$N$9</f>
@@ -19315,7 +19315,7 @@
       </c>
       <c r="C12" s="24">
         <f t="shared" si="6"/>
-        <v>-1.6025403784437913</v>
+        <v>15.397459621556209</v>
       </c>
       <c r="D12" s="24">
         <f t="shared" si="7"/>
@@ -19363,7 +19363,7 @@
       </c>
       <c r="C13" s="32">
         <f t="shared" si="6"/>
-        <v>-17.602540378443791</v>
+        <v>-0.60254037844379127</v>
       </c>
       <c r="D13" s="32">
         <f t="shared" si="7"/>
@@ -19411,7 +19411,7 @@
       </c>
       <c r="C14" s="24">
         <f t="shared" si="6"/>
-        <v>-17.602540378443763</v>
+        <v>-0.60254037844376285</v>
       </c>
       <c r="D14" s="24">
         <f t="shared" si="7"/>
@@ -19575,7 +19575,7 @@
       </c>
       <c r="C19" s="32">
         <f t="shared" si="6"/>
-        <v>-1.6025403784437913</v>
+        <v>15.397459621556209</v>
       </c>
       <c r="D19" s="32">
         <f t="shared" si="7"/>
@@ -19710,7 +19710,7 @@
       </c>
       <c r="C23" s="32">
         <f t="shared" si="6"/>
-        <v>14.397459621556209</v>
+        <v>31.397459621556209</v>
       </c>
       <c r="D23" s="32">
         <f t="shared" si="7"/>
@@ -19758,7 +19758,7 @@
       </c>
       <c r="C24" s="24">
         <f t="shared" si="6"/>
-        <v>30.39745962155618</v>
+        <v>47.39745962155618</v>
       </c>
       <c r="D24" s="24">
         <f t="shared" si="7"/>
@@ -20678,8 +20678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21443,7 +21443,7 @@
       </c>
       <c r="C27" s="63">
         <f>IF('left upper'!C4=0, "", 'left upper'!C4)</f>
-        <v>30.397459621556152</v>
+        <v>47.397459621556152</v>
       </c>
       <c r="D27" s="63">
         <f>IF('left upper'!D4=0, "", 'left upper'!D4)</f>
@@ -21473,7 +21473,7 @@
       </c>
       <c r="C28" s="63">
         <f>IF('left upper'!C5=0, "", 'left upper'!C5)</f>
-        <v>30.397459621556152</v>
+        <v>47.397459621556152</v>
       </c>
       <c r="D28" s="63">
         <f>IF('left upper'!D5=0, "", 'left upper'!D5)</f>
@@ -21653,7 +21653,7 @@
       </c>
       <c r="C34" s="63">
         <f>IF('left upper'!C11=0, "", 'left upper'!C11)</f>
-        <v>14.397459621556209</v>
+        <v>31.397459621556209</v>
       </c>
       <c r="D34" s="63">
         <f>IF('left upper'!D11=0, "", 'left upper'!D11)</f>
@@ -21683,7 +21683,7 @@
       </c>
       <c r="C35" s="63">
         <f>IF('left upper'!C12=0, "", 'left upper'!C12)</f>
-        <v>-1.6025403784437913</v>
+        <v>15.397459621556209</v>
       </c>
       <c r="D35" s="63">
         <f>IF('left upper'!D12=0, "", 'left upper'!D12)</f>
@@ -21713,7 +21713,7 @@
       </c>
       <c r="C36" s="63">
         <f>IF('left upper'!C13=0, "", 'left upper'!C13)</f>
-        <v>-17.602540378443791</v>
+        <v>-0.60254037844379127</v>
       </c>
       <c r="D36" s="63">
         <f>IF('left upper'!D13=0, "", 'left upper'!D13)</f>
@@ -21743,7 +21743,7 @@
       </c>
       <c r="C37" s="63">
         <f>IF('left upper'!C14=0, "", 'left upper'!C14)</f>
-        <v>-17.602540378443763</v>
+        <v>-0.60254037844376285</v>
       </c>
       <c r="D37" s="63">
         <f>IF('left upper'!D14=0, "", 'left upper'!D14)</f>
@@ -21893,7 +21893,7 @@
       </c>
       <c r="C42" s="63">
         <f>IF('left upper'!C19=0, "", 'left upper'!C19)</f>
-        <v>-1.6025403784437913</v>
+        <v>15.397459621556209</v>
       </c>
       <c r="D42" s="63">
         <f>IF('left upper'!D19=0, "", 'left upper'!D19)</f>
@@ -22013,7 +22013,7 @@
       </c>
       <c r="C46" s="63">
         <f>IF('left upper'!C23=0, "", 'left upper'!C23)</f>
-        <v>14.397459621556209</v>
+        <v>31.397459621556209</v>
       </c>
       <c r="D46" s="63">
         <f>IF('left upper'!D23=0, "", 'left upper'!D23)</f>
@@ -22043,7 +22043,7 @@
       </c>
       <c r="C47" s="63">
         <f>IF('left upper'!C24=0, "", 'left upper'!C24)</f>
-        <v>30.39745962155618</v>
+        <v>47.39745962155618</v>
       </c>
       <c r="D47" s="63">
         <f>IF('left upper'!D24=0, "", 'left upper'!D24)</f>
@@ -23093,7 +23093,7 @@
       </c>
       <c r="C82" s="65">
         <f>IF('right upper'!C13=0, "", 'right upper'!C13)</f>
-        <v>-33.602540378443777</v>
+        <v>-17.602540378443777</v>
       </c>
       <c r="D82" s="65">
         <f>IF('right upper'!D13=0, "", 'right upper'!D13)</f>
@@ -23123,7 +23123,7 @@
       </c>
       <c r="C83" s="65">
         <f>IF('right upper'!C14=0, "", 'right upper'!C14)</f>
-        <v>-49.602540378443749</v>
+        <v>-33.602540378443749</v>
       </c>
       <c r="D83" s="65">
         <f>IF('right upper'!D14=0, "", 'right upper'!D14)</f>
@@ -23153,7 +23153,7 @@
       </c>
       <c r="C84" s="65">
         <f>IF('right upper'!C15=0, "", 'right upper'!C15)</f>
-        <v>-65.602540378443749</v>
+        <v>-49.602540378443749</v>
       </c>
       <c r="D84" s="65">
         <f>IF('right upper'!D15=0, "", 'right upper'!D15)</f>
@@ -23183,7 +23183,7 @@
       </c>
       <c r="C85" s="65">
         <f>IF('right upper'!C16=0, "", 'right upper'!C16)</f>
-        <v>-65.60254037844372</v>
+        <v>-49.60254037844372</v>
       </c>
       <c r="D85" s="65">
         <f>IF('right upper'!D16=0, "", 'right upper'!D16)</f>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="C88" s="65">
         <f>IF('right upper'!C19=0, "", 'right upper'!C19)</f>
-        <v>-49.602540378443777</v>
+        <v>-33.602540378443777</v>
       </c>
       <c r="D88" s="65">
         <f>IF('right upper'!D19=0, "", 'right upper'!D19)</f>
@@ -23303,7 +23303,7 @@
       </c>
       <c r="C89" s="65">
         <f>IF('right upper'!C20=0, "", 'right upper'!C20)</f>
-        <v>-65.602540378443763</v>
+        <v>-49.602540378443763</v>
       </c>
       <c r="D89" s="65">
         <f>IF('right upper'!D20=0, "", 'right upper'!D20)</f>
@@ -23393,7 +23393,7 @@
       </c>
       <c r="C92" s="65">
         <f>IF('right upper'!C23=0, "", 'right upper'!C23)</f>
-        <v>-33.602540378443791</v>
+        <v>-17.602540378443791</v>
       </c>
       <c r="D92" s="65">
         <f>IF('right upper'!D23=0, "", 'right upper'!D23)</f>

--- a/app/skinGui/iniGenerators/torso_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/torso_ini_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13455" yWindow="-15" windowWidth="11685" windowHeight="12120" activeTab="5"/>
+    <workbookView xWindow="2880" yWindow="-15" windowWidth="22260" windowHeight="12120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="right upper" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="29">
   <si>
     <t>[SENSORS]</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>triangle_10pad</t>
+  </si>
+  <si>
+    <t>Triangle # for the MTB</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +276,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,7 +670,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -786,6 +801,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -813,13 +833,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>5620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1681</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -831,7 +851,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10165620" y="0"/>
+          <a:off x="10800620" y="0"/>
           <a:ext cx="4038894" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
@@ -1837,13 +1857,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>534787</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -1855,7 +1875,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10123287" y="2320295"/>
+          <a:off x="10758287" y="2320295"/>
           <a:ext cx="4524046" cy="3716062"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
@@ -2861,13 +2881,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>288686</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>126383</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>2583935</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>67497</xdr:rowOff>
@@ -3860,13 +3880,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>5620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1681</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3878,7 +3898,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10303203" y="0"/>
+          <a:off x="10938203" y="0"/>
           <a:ext cx="4038895" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
@@ -4884,13 +4904,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>534787</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -4902,7 +4922,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10260870" y="2320295"/>
+          <a:off x="10895870" y="2320295"/>
           <a:ext cx="4397047" cy="3716062"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
@@ -5908,13 +5928,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>370418</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
@@ -7169,13 +7189,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>534787</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>897673</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -7187,7 +7207,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9350704" y="2426129"/>
+          <a:off x="9985704" y="2426129"/>
           <a:ext cx="4342219" cy="4097061"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
@@ -8193,13 +8213,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>305432</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>148896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>2455335</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -9526,13 +9546,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>5620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1681</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -9544,7 +9564,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10091537" y="0"/>
+          <a:off x="10726537" y="0"/>
           <a:ext cx="4028311" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
@@ -10550,13 +10570,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>534786</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>328083</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -10568,7 +10588,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10080953" y="2320295"/>
+          <a:off x="10715953" y="2320295"/>
           <a:ext cx="4365297" cy="3716062"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
@@ -11574,13 +11594,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>359000</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>2487085</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>7368</xdr:rowOff>
@@ -12779,13 +12799,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>503036</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>161295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>296333</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -12797,7 +12817,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10006869" y="2330878"/>
+          <a:off x="10641869" y="2330878"/>
           <a:ext cx="4322964" cy="3705479"/>
           <a:chOff x="10924183" y="1860638"/>
           <a:chExt cx="5518210" cy="4612739"/>
@@ -13803,13 +13823,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>345157</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>178427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>745341</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>117146</xdr:rowOff>
@@ -15515,10 +15535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15530,20 +15550,21 @@
     <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -15576,20 +15597,23 @@
       <c r="L2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="31"/>
       <c r="C3" s="23"/>
@@ -15608,30 +15632,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="69">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>1.0471975511965976</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="31"/>
       <c r="C4" s="23"/>
@@ -15650,27 +15678,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="69">
+        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="31"/>
       <c r="C5" s="23"/>
@@ -15689,26 +15721,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="69">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>60</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="31"/>
       <c r="C6" s="23"/>
@@ -15727,24 +15763,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="69">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="31"/>
       <c r="C7" s="23"/>
@@ -15763,23 +15803,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="69">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>51</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="31"/>
       <c r="C8" s="23"/>
@@ -15798,23 +15842,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="69">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="31"/>
       <c r="C9" s="23"/>
@@ -15832,21 +15880,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="69">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-112</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="31"/>
       <c r="C10" s="23"/>
@@ -15864,20 +15916,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="69">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="31"/>
       <c r="C11" s="23"/>
@@ -15895,20 +15951,24 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="69">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>0</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="31"/>
       <c r="C12" s="23"/>
@@ -15926,42 +15986,46 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="69">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="31">
-        <f t="shared" ref="B13:B14" si="0">((ROUND($L13/10,0))-1)*4+MOD($L13,10)+((J13-1)*15)+N$11</f>
+        <f t="shared" ref="B13:B14" si="1">((ROUND($L13/10,0))-1)*4+MOD($L13,10)+((J13-1)*15)+O$11</f>
         <v>8</v>
       </c>
       <c r="C13" s="23">
-        <f t="shared" ref="C13:C14" si="1">((+O13*COS($N$3)-P13*SIN($N$3))*$R$3)+$N$7</f>
+        <f t="shared" ref="C13:C14" si="2">((+P13*COS($O$3)-Q13*SIN($O$3))*$S$3)+$O$7</f>
         <v>-17.602540378443777</v>
       </c>
       <c r="D13" s="23">
-        <f t="shared" ref="D13:D14" si="2">((O13*SIN($N$3)+P13*COS($N$3))*$R$4)+$N$9</f>
+        <f t="shared" ref="D13:D14" si="3">((P13*SIN($O$3)+Q13*COS($O$3))*$S$4)+$O$9</f>
         <v>80.028166220647904</v>
       </c>
       <c r="E13" s="23">
-        <f t="shared" ref="E13:E23" si="3">($M13/3.1416*180)+$N$5</f>
+        <f t="shared" ref="E13:E23" si="4">($N13/3.1416*180)+$O$5</f>
         <v>60</v>
       </c>
       <c r="F13" s="11">
         <v>4</v>
       </c>
       <c r="G13" s="25">
-        <f t="shared" ref="G13:G23" si="4">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G13:G23" si="5">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
@@ -15974,42 +16038,46 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="70">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C14" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-33.602540378443749</v>
       </c>
       <c r="D14" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70.790561913613885</v>
       </c>
       <c r="E14" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119.99985969422843</v>
       </c>
       <c r="F14" s="11">
         <v>4</v>
       </c>
       <c r="G14" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
@@ -16022,42 +16090,46 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="70">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="31">
-        <f t="shared" ref="B15:B23" si="5">((ROUND($L15/10,0))-1)*4+MOD($L15,10)+((J15-1)*15)+N$11</f>
+        <f t="shared" ref="B15:B23" si="6">((ROUND($L15/10,0))-1)*4+MOD($L15,10)+((J15-1)*15)+O$11</f>
         <v>6</v>
       </c>
       <c r="C15" s="23">
-        <f t="shared" ref="C15:C23" si="6">((+O15*COS($N$3)-P15*SIN($N$3))*$R$3)+$N$7</f>
+        <f t="shared" ref="C15:C23" si="7">((+P15*COS($O$3)-Q15*SIN($O$3))*$S$3)+$O$7</f>
         <v>-49.602540378443749</v>
       </c>
       <c r="D15" s="23">
-        <f t="shared" ref="D15:D23" si="7">((O15*SIN($N$3)+P15*COS($N$3))*$R$4)+$N$9</f>
+        <f t="shared" ref="D15:D23" si="8">((P15*SIN($O$3)+Q15*COS($O$3))*$S$4)+$O$9</f>
         <v>80.028166220647904</v>
       </c>
       <c r="E15" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F15" s="11">
         <v>4</v>
       </c>
       <c r="G15" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15" s="1"/>
@@ -16070,42 +16142,46 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="70">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C16" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-49.60254037844372</v>
       </c>
       <c r="D16" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>98.503374834715913</v>
       </c>
       <c r="E16" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.403057715734235E-4</v>
       </c>
       <c r="F16" s="11">
         <v>4</v>
       </c>
       <c r="G16" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I16" s="1"/>
@@ -16118,18 +16194,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="70">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="31"/>
       <c r="C17" s="23"/>
@@ -16147,18 +16227,22 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="69">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="31"/>
       <c r="C18" s="23"/>
@@ -16176,42 +16260,46 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="69">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="C19" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-33.602540378443777</v>
       </c>
       <c r="D19" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>52.315353299545876</v>
       </c>
       <c r="E19" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>179.99971938845687</v>
       </c>
       <c r="F19" s="11">
         <v>4</v>
       </c>
       <c r="G19" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
@@ -16224,42 +16312,46 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="70">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C20" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-49.602540378443763</v>
       </c>
       <c r="D20" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43.077748992511857</v>
       </c>
       <c r="E20" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119.99985969422843</v>
       </c>
       <c r="F20" s="11">
         <v>4</v>
       </c>
       <c r="G20" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -16272,18 +16364,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="70">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="31"/>
       <c r="C21" s="23"/>
@@ -16301,18 +16397,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="69">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="31"/>
       <c r="C22" s="23"/>
@@ -16330,42 +16430,46 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="C23" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-17.602540378443791</v>
       </c>
       <c r="D23" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43.077748992511886</v>
       </c>
       <c r="E23" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>239.99957908268468</v>
       </c>
       <c r="F23" s="11">
         <v>4</v>
       </c>
       <c r="G23" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -16378,18 +16482,22 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="70">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="31"/>
       <c r="C24" s="23"/>
@@ -16407,18 +16515,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="69">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="31"/>
       <c r="C25" s="23"/>
@@ -16436,21 +16548,100 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="69">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16461,10 +16652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16478,20 +16669,21 @@
     <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -16524,20 +16716,23 @@
       <c r="L2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -16556,54 +16751,58 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="69">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>-1.0471975511965976</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="31">
-        <f t="shared" ref="B4:B19" si="0">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*15)+N$11</f>
+        <f t="shared" ref="B4:B19" si="0">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*15)+O$11</f>
         <v>17</v>
       </c>
       <c r="C4" s="23">
-        <f t="shared" ref="C4:C19" si="1">((+O4*COS($N$3)-P4*SIN($N$3))*$R$3)+$N$7</f>
+        <f t="shared" ref="C4:C19" si="1">((+P4*COS($O$3)-Q4*SIN($O$3))*$S$3)+$O$7</f>
         <v>-66.397459621556152</v>
       </c>
       <c r="D4" s="23">
-        <f t="shared" ref="D4:D19" si="2">((O4*SIN($N$3)+P4*COS($N$3))*$R$4)+$N$9</f>
+        <f t="shared" ref="D4:D19" si="2">((P4*SIN($O$3)+Q4*COS($O$3))*$S$4)+$O$9</f>
         <v>-12.84014468547786</v>
       </c>
       <c r="E4" s="23">
-        <f t="shared" ref="E4:E13" si="3">($M4/3.1416*180)+$N$5</f>
+        <f t="shared" ref="E4:E13" si="3">($N4/3.1416*180)+$O$5</f>
         <v>-119.99985969422843</v>
       </c>
       <c r="F4" s="11">
         <v>4</v>
       </c>
       <c r="G4" s="25">
-        <f t="shared" ref="G4:G23" si="4">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G4:G23" si="4">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
@@ -16617,27 +16816,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="70">
+        <f t="shared" ref="M4:M25" si="5">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>27</v>
       </c>
@@ -16675,26 +16878,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="70">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>-60</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>27</v>
       </c>
@@ -16732,24 +16939,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="70">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="O6" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="31"/>
       <c r="C7" s="23"/>
@@ -16768,23 +16979,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="69">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>-219</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="31"/>
       <c r="C8" s="23"/>
@@ -16803,23 +17018,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="69">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="31"/>
       <c r="C9" s="23"/>
@@ -16837,21 +17056,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="69">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>33</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="31"/>
       <c r="C10" s="23"/>
@@ -16869,20 +17092,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="69">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>27</v>
       </c>
@@ -16919,20 +17146,24 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="70">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>16</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>27</v>
       </c>
@@ -16969,18 +17200,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="70">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>27</v>
       </c>
@@ -17017,18 +17252,22 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="70">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>27</v>
       </c>
@@ -17045,7 +17284,7 @@
         <v>14.872668235624133</v>
       </c>
       <c r="E14" s="23">
-        <f>R$3*(($M14/3.1416*180)+$N$5)</f>
+        <f>S$3*(($N14/3.1416*180)+$O$5)</f>
         <v>-1.403057715734235E-4</v>
       </c>
       <c r="F14" s="11">
@@ -17065,18 +17304,22 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="70">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>27</v>
       </c>
@@ -17093,7 +17336,7 @@
         <v>24.110272542658137</v>
       </c>
       <c r="E15" s="23">
-        <f t="shared" ref="E15:E19" si="5">R$3*(($M15/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E15:E19" si="6">S$3*(($N15/3.1416*180)+$O$5)</f>
         <v>-60</v>
       </c>
       <c r="F15" s="11">
@@ -17113,18 +17356,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="70">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>27</v>
       </c>
@@ -17141,7 +17388,7 @@
         <v>14.872668235624133</v>
       </c>
       <c r="E16" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-119.99985969422843</v>
       </c>
       <c r="F16" s="11">
@@ -17161,18 +17408,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="70">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="31"/>
       <c r="C17" s="23"/>
@@ -17190,18 +17441,22 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="69">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="31"/>
       <c r="C18" s="23"/>
@@ -17219,18 +17474,22 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="69">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>27</v>
       </c>
@@ -17247,7 +17506,7 @@
         <v>24.110272542658151</v>
       </c>
       <c r="E19" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.999719388456853</v>
       </c>
       <c r="F19" s="11">
@@ -17267,18 +17526,22 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="70">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="31"/>
       <c r="C20" s="23"/>
@@ -17296,18 +17559,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="69">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="31"/>
       <c r="C21" s="23"/>
@@ -17325,18 +17592,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="69">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="31"/>
       <c r="C22" s="23"/>
@@ -17354,35 +17625,39 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="31">
-        <f t="shared" ref="B23" si="6">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*15)+N$11</f>
+        <f t="shared" ref="B23" si="7">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*15)+O$11</f>
         <v>27</v>
       </c>
       <c r="C23" s="23">
-        <f t="shared" ref="C23" si="7">((+O23*COS($N$3)-P23*SIN($N$3))*$R$3)+$N$7</f>
+        <f t="shared" ref="C23" si="8">((+P23*COS($O$3)-Q23*SIN($O$3))*$S$3)+$O$7</f>
         <v>-50.39745962155618</v>
       </c>
       <c r="D23" s="23">
-        <f t="shared" ref="D23" si="8">((O23*SIN($N$3)+P23*COS($N$3))*$R$4)+$N$9</f>
+        <f t="shared" ref="D23" si="9">((P23*SIN($O$3)+Q23*COS($O$3))*$S$4)+$O$9</f>
         <v>14.872668235624147</v>
       </c>
       <c r="E23" s="23">
-        <f t="shared" ref="E23" si="9">R$3*(($M23/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E23" si="10">S$3*(($N23/3.1416*180)+$O$5)</f>
         <v>119.99957908268468</v>
       </c>
       <c r="F23" s="11">
@@ -17402,18 +17677,22 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="70">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="31"/>
       <c r="C24" s="23"/>
@@ -17431,18 +17710,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="69">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="31"/>
       <c r="C25" s="23"/>
@@ -17460,21 +17743,100 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="69">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17485,10 +17847,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17504,22 +17866,23 @@
     <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -17552,44 +17915,47 @@
       <c r="L2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="31">
-        <f t="shared" ref="B3:B13" si="0">((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*15)+N$11</f>
+        <f t="shared" ref="B3:B13" si="0">((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*15)+O$11</f>
         <v>32</v>
       </c>
       <c r="C3" s="23">
-        <f t="shared" ref="C3:C13" si="1">((+O3*COS($N$3)-P3*SIN($N$3))*$R$3)+$N$7</f>
+        <f t="shared" ref="C3:C13" si="1">((+P3*COS($O$3)-Q3*SIN($O$3))*$S$3)+$O$7</f>
         <v>63.397459621556152</v>
       </c>
       <c r="D3" s="23">
-        <f t="shared" ref="D3:D13" si="2">((O3*SIN($N$3)+P3*COS($N$3))*$R$4)+$N$9</f>
+        <f t="shared" ref="D3:D13" si="2">((P3*SIN($O$3)+Q3*COS($O$3))*$S$4)+$O$9</f>
         <v>-13.397459621556102</v>
       </c>
       <c r="E3" s="23">
-        <f t="shared" ref="E3:E13" si="3">R$3*(($M3/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E3:E13" si="3">S$3*(($N3/3.1416*180)+$O$5)</f>
         <v>2.80611543146847E-4</v>
       </c>
       <c r="F3" s="11">
         <v>4</v>
       </c>
       <c r="G3" s="25">
-        <f t="shared" ref="G3:G13" si="4">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G3:G13" si="4">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
@@ -17603,30 +17969,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="70">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>2.0943951023931953</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>27</v>
       </c>
@@ -17664,27 +18034,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="70">
+        <f t="shared" ref="M4:M25" si="5">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>27</v>
       </c>
@@ -17722,26 +18096,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="70">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>120</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="31"/>
       <c r="C6" s="23"/>
@@ -17760,24 +18138,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="69">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="31"/>
       <c r="C7" s="23"/>
@@ -17796,23 +18178,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="69">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>200</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="31"/>
       <c r="C8" s="23"/>
@@ -17831,23 +18217,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="69">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="31"/>
       <c r="C9" s="23"/>
@@ -17865,21 +18255,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="69">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-50</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="31"/>
       <c r="C10" s="23"/>
@@ -17897,20 +18291,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="69">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>27</v>
       </c>
@@ -17947,20 +18345,24 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="70">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>32</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>27</v>
       </c>
@@ -17997,18 +18399,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="70">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>27</v>
       </c>
@@ -18045,42 +18451,46 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="70">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="31">
-        <f t="shared" ref="B14:B20" si="5">((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*15)+N$11</f>
+        <f t="shared" ref="B14:B20" si="6">((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*15)+O$11</f>
         <v>41</v>
       </c>
       <c r="C14" s="23">
-        <f t="shared" ref="C14:C20" si="6">((+O14*COS($N$3)-P14*SIN($N$3))*$R$3)+$N$7</f>
+        <f t="shared" ref="C14:C20" si="7">((+P14*COS($O$3)-Q14*SIN($O$3))*$S$3)+$O$7</f>
         <v>-0.60254037844376285</v>
       </c>
       <c r="D14" s="23">
-        <f t="shared" ref="D14:D20" si="7">((O14*SIN($N$3)+P14*COS($N$3))*$R$4)+$N$9</f>
+        <f t="shared" ref="D14:D20" si="8">((P14*SIN($O$3)+Q14*COS($O$3))*$S$4)+$O$9</f>
         <v>-31.872668235624062</v>
       </c>
       <c r="E14" s="23">
-        <f>R$3*(($M14/3.1416*180)+$N$5)</f>
+        <f>S$3*(($N14/3.1416*180)+$O$5)</f>
         <v>179.99985969422843</v>
       </c>
       <c r="F14" s="11">
         <v>4</v>
       </c>
       <c r="G14" s="25">
-        <f t="shared" ref="G14:G25" si="8">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G14:G25" si="9">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
@@ -18093,42 +18503,46 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="70">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="C15" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-16.602540378443763</v>
       </c>
       <c r="D15" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.110272542658066</v>
       </c>
       <c r="E15" s="23">
-        <f t="shared" ref="E15:E20" si="9">R$3*(($M15/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E15:E20" si="10">S$3*(($N15/3.1416*180)+$O$5)</f>
         <v>120</v>
       </c>
       <c r="F15" s="11">
         <v>4</v>
       </c>
       <c r="G15" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I15" s="1"/>
@@ -18141,42 +18555,46 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="70">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="C16" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-32.602540378443734</v>
       </c>
       <c r="D16" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-31.872668235624047</v>
       </c>
       <c r="E16" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.000140305771573</v>
       </c>
       <c r="F16" s="11">
         <v>4</v>
       </c>
       <c r="G16" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I16" s="1"/>
@@ -18189,42 +18607,46 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="70">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="C17" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-16.602540378443734</v>
       </c>
       <c r="D17" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-59.585481156726075</v>
       </c>
       <c r="E17" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>179.99985969422843</v>
       </c>
       <c r="F17" s="11">
         <v>4</v>
       </c>
       <c r="G17" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
@@ -18237,42 +18659,46 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="70">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="C18" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.60254037844376285</v>
       </c>
       <c r="D18" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-68.823085463760108</v>
       </c>
       <c r="E18" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>239.99971938845687</v>
       </c>
       <c r="F18" s="11">
         <v>4</v>
       </c>
       <c r="G18" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I18" s="1"/>
@@ -18285,42 +18711,46 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="70">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="C19" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.397459621556209</v>
       </c>
       <c r="D19" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.110272542658095</v>
       </c>
       <c r="E19" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>239.99971938845687</v>
       </c>
       <c r="F19" s="11">
         <v>4</v>
       </c>
       <c r="G19" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
@@ -18333,42 +18763,46 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="70">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="C20" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.397459621556237</v>
       </c>
       <c r="D20" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-59.585481156726104</v>
       </c>
       <c r="E20" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>179.99985969422843</v>
       </c>
       <c r="F20" s="11">
         <v>4</v>
       </c>
       <c r="G20" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -18381,18 +18815,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="69">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="31"/>
       <c r="C21" s="23"/>
@@ -18410,18 +18848,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="69">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="31"/>
       <c r="C22" s="23"/>
@@ -18439,42 +18881,46 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="31">
-        <f t="shared" ref="B23" si="10">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*15)+N$11</f>
+        <f t="shared" ref="B23" si="11">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*15)+O$11</f>
         <v>43</v>
       </c>
       <c r="C23" s="23">
-        <f t="shared" ref="C23" si="11">((+O23*COS($N$3)-P23*SIN($N$3))*$R$3)+$N$7</f>
+        <f t="shared" ref="C23" si="12">((+P23*COS($O$3)-Q23*SIN($O$3))*$S$3)+$O$7</f>
         <v>31.397459621556209</v>
       </c>
       <c r="D23" s="23">
-        <f t="shared" ref="D23" si="12">((O23*SIN($N$3)+P23*COS($N$3))*$R$4)+$N$9</f>
+        <f t="shared" ref="D23" si="13">((P23*SIN($O$3)+Q23*COS($O$3))*$S$4)+$O$9</f>
         <v>-31.87266823562409</v>
       </c>
       <c r="E23" s="23">
-        <f t="shared" ref="E23" si="13">R$3*(($M23/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E23" si="14">S$3*(($N23/3.1416*180)+$O$5)</f>
         <v>299.9995790826847</v>
       </c>
       <c r="F23" s="11">
         <v>4</v>
       </c>
       <c r="G23" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -18487,42 +18933,46 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="70">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="31">
-        <f t="shared" ref="B24:B25" si="14">((ROUND($L24/10,0))-1)*4+MOD($L24,10)+((J24-1)*15)+N$11</f>
+        <f t="shared" ref="B24:B25" si="15">((ROUND($L24/10,0))-1)*4+MOD($L24,10)+((J24-1)*15)+O$11</f>
         <v>46</v>
       </c>
       <c r="C24" s="23">
-        <f t="shared" ref="C24:C25" si="15">((+O24*COS($N$3)-P24*SIN($N$3))*$R$3)+$N$7</f>
+        <f t="shared" ref="C24:C25" si="16">((+P24*COS($O$3)-Q24*SIN($O$3))*$S$3)+$O$7</f>
         <v>47.39745962155618</v>
       </c>
       <c r="D24" s="23">
-        <f t="shared" ref="D24:D25" si="16">((O24*SIN($N$3)+P24*COS($N$3))*$R$4)+$N$9</f>
+        <f t="shared" ref="D24:D25" si="17">((P24*SIN($O$3)+Q24*COS($O$3))*$S$4)+$O$9</f>
         <v>-41.110272542658123</v>
       </c>
       <c r="E24" s="23">
-        <f t="shared" ref="E24:E25" si="17">R$3*(($M24/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E24:E25" si="18">S$3*(($N24/3.1416*180)+$O$5)</f>
         <v>239.99971938845687</v>
       </c>
       <c r="F24" s="11">
         <v>4</v>
       </c>
       <c r="G24" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -18535,42 +18985,46 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="70">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47</v>
       </c>
       <c r="C25" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>63.397459621556152</v>
       </c>
       <c r="D25" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-31.872668235624133</v>
       </c>
       <c r="E25" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>299.9995790826847</v>
       </c>
       <c r="F25" s="11">
         <v>4</v>
       </c>
       <c r="G25" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
@@ -18583,260 +19037,288 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="70">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G33" s="7"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="7"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="7"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="7"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G36" s="7"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="7"/>
+      <c r="M36" s="8"/>
       <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G37" s="7"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="7"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G38" s="7"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="7"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G39" s="7"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="7"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G40" s="7"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="7"/>
+      <c r="M40" s="8"/>
       <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="7"/>
+      <c r="M41" s="8"/>
       <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="7"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="7"/>
+      <c r="M43" s="8"/>
       <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="7"/>
+    </row>
+    <row r="44" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G44" s="7"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="7"/>
+      <c r="M44" s="8"/>
       <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="7"/>
+      <c r="M45" s="8"/>
       <c r="N45" s="7"/>
-    </row>
-    <row r="46" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="8"/>
       <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="7"/>
+      <c r="M47" s="8"/>
       <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="7"/>
+      <c r="M48" s="8"/>
       <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G49" s="7"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="7"/>
+      <c r="M49" s="8"/>
       <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G50" s="7"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="7"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="7"/>
-    </row>
-    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G51" s="7"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="7"/>
+      <c r="M51" s="8"/>
       <c r="N51" s="7"/>
-    </row>
-    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G52" s="7"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
-      <c r="M52" s="7"/>
+      <c r="M52" s="8"/>
       <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G53" s="7"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
-      <c r="M53" s="7"/>
+      <c r="M53" s="8"/>
       <c r="N53" s="7"/>
-    </row>
-    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G54" s="7"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="7"/>
+      <c r="M54" s="8"/>
       <c r="N54" s="7"/>
-    </row>
-    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -18845,6 +19327,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18855,10 +19338,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18872,20 +19355,21 @@
     <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -18918,20 +19402,23 @@
       <c r="L2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -18950,54 +19437,58 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="69">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>2.0943951023931953</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="31">
-        <f t="shared" ref="B4:B5" si="0">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*15)+N$11</f>
+        <f t="shared" ref="B4:B5" si="0">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*15)+O$11</f>
         <v>49</v>
       </c>
       <c r="C4" s="23">
-        <f t="shared" ref="C4:C5" si="1">((+O4*COS($N$3)-P4*SIN($N$3))*$R$3)+$N$7</f>
+        <f t="shared" ref="C4:C5" si="1">((+P4*COS($O$3)-Q4*SIN($O$3))*$S$3)+$O$7</f>
         <v>47.397459621556152</v>
       </c>
       <c r="D4" s="23">
-        <f t="shared" ref="D4:D5" si="2">((O4*SIN($N$3)+P4*COS($N$3))*$R$4)+$N$9</f>
+        <f t="shared" ref="D4:D5" si="2">((P4*SIN($O$3)+Q4*COS($O$3))*$S$4)+$O$9</f>
         <v>79.84014468547791</v>
       </c>
       <c r="E4" s="23">
-        <f t="shared" ref="E4:E24" si="3">($M4/3.1416*180)+$N$5</f>
+        <f t="shared" ref="E4:E24" si="3">($N4/3.1416*180)+$O$5</f>
         <v>60.000140305771573</v>
       </c>
       <c r="F4" s="11">
         <v>4</v>
       </c>
       <c r="G4" s="25">
-        <f t="shared" ref="G4:G24" si="4">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G4:G24" si="4">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
@@ -19011,27 +19502,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="70">
+        <f t="shared" ref="M4:M25" si="5">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>27</v>
       </c>
@@ -19069,26 +19564,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="70">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>120</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="31"/>
       <c r="C6" s="23"/>
@@ -19107,24 +19606,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="69">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -19143,23 +19646,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="69">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>200</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="31"/>
       <c r="C8" s="23"/>
@@ -19178,23 +19685,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="69">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -19212,21 +19723,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="69">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>34</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="31"/>
       <c r="C10" s="23"/>
@@ -19244,33 +19759,37 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="69">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="O10" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="31">
-        <f t="shared" ref="B11:B24" si="5">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*15)+N$11</f>
+        <f t="shared" ref="B11:B24" si="6">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*15)+O$11</f>
         <v>60</v>
       </c>
       <c r="C11" s="31">
-        <f t="shared" ref="C11:C24" si="6">((+O11*COS($N$3)-P11*SIN($N$3))*$R$3)+$N$7</f>
+        <f t="shared" ref="C11:C24" si="7">((+P11*COS($O$3)-Q11*SIN($O$3))*$S$3)+$O$7</f>
         <v>31.397459621556209</v>
       </c>
       <c r="D11" s="31">
-        <f t="shared" ref="D11:D24" si="7">((O11*SIN($N$3)+P11*COS($N$3))*$R$4)+$N$9</f>
+        <f t="shared" ref="D11:D24" si="8">((P11*SIN($O$3)+Q11*COS($O$3))*$S$4)+$O$9</f>
         <v>70.602540378443919</v>
       </c>
       <c r="E11" s="31">
@@ -19294,33 +19813,37 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="70">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="66">
+      <c r="O11" s="66">
         <v>48</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="C12" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.397459621556209</v>
       </c>
       <c r="D12" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>79.840144685477938</v>
       </c>
       <c r="E12" s="23">
@@ -19344,31 +19867,35 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="70">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="C13" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.60254037844379127</v>
       </c>
       <c r="D13" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70.602540378443933</v>
       </c>
       <c r="E13" s="31">
@@ -19392,31 +19919,35 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="70">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="C14" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.60254037844376285</v>
       </c>
       <c r="D14" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>52.127331764375938</v>
       </c>
       <c r="E14" s="23">
@@ -19440,18 +19971,22 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="70">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -19469,18 +20004,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="69">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="31"/>
       <c r="C16" s="23"/>
@@ -19498,18 +20037,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="69">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -19527,18 +20070,22 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="69">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="31"/>
       <c r="C18" s="23"/>
@@ -19556,31 +20103,35 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="69">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="C19" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.397459621556209</v>
       </c>
       <c r="D19" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42.889727457341905</v>
       </c>
       <c r="E19" s="31">
@@ -19604,18 +20155,22 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="70">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="31"/>
       <c r="C20" s="23"/>
@@ -19633,18 +20188,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="69">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
@@ -19662,18 +20221,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="69">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="31"/>
       <c r="C22" s="23"/>
@@ -19691,31 +20254,35 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="C23" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31.397459621556209</v>
       </c>
       <c r="D23" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>52.12733176437591</v>
       </c>
       <c r="E23" s="31">
@@ -19739,31 +20306,35 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="70">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="C24" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47.39745962155618</v>
       </c>
       <c r="D24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42.889727457341877</v>
       </c>
       <c r="E24" s="23">
@@ -19787,18 +20358,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="70">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -19816,24 +20391,103 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="69">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N30" s="56"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O30" s="56"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19844,10 +20498,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19862,20 +20516,21 @@
     <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -19908,20 +20563,23 @@
       <c r="L2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="31"/>
       <c r="C3" s="23"/>
@@ -19940,30 +20598,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="69">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>1.0471975511965976</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="31"/>
       <c r="C4" s="23"/>
@@ -19982,27 +20644,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="69">
+        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="31"/>
       <c r="C5" s="23"/>
@@ -20021,26 +20687,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="69">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>60</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="31"/>
       <c r="C6" s="23"/>
@@ -20059,24 +20729,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="69">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="31"/>
       <c r="C7" s="23"/>
@@ -20095,23 +20769,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="69">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>148</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="31"/>
       <c r="C8" s="23"/>
@@ -20130,23 +20808,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="69">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="31"/>
       <c r="C9" s="23"/>
@@ -20164,21 +20846,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="69">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-140</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="31"/>
       <c r="C10" s="23"/>
@@ -20196,20 +20882,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="69">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="31"/>
       <c r="C11" s="23"/>
@@ -20227,20 +20917,24 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="69">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>48</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="31"/>
       <c r="C12" s="23"/>
@@ -20258,18 +20952,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="69">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="31"/>
       <c r="C13" s="23"/>
@@ -20287,18 +20985,22 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="69">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="31"/>
       <c r="C14" s="23"/>
@@ -20316,18 +21018,22 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="69">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="31"/>
       <c r="C15" s="23"/>
@@ -20345,18 +21051,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="69">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="31"/>
       <c r="C16" s="23"/>
@@ -20374,18 +21084,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="69">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="31"/>
       <c r="C17" s="23"/>
@@ -20403,42 +21117,46 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="69">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="31">
-        <f t="shared" ref="B18" si="0">((ROUND($L18/10,0))-1)*4+MOD($L18,10)+((J18-1)*15)+N$11</f>
+        <f t="shared" ref="B18" si="1">((ROUND($L18/10,0))-1)*4+MOD($L18,10)+((J18-1)*15)+O$11</f>
         <v>52</v>
       </c>
       <c r="C18" s="23">
-        <f t="shared" ref="C18" si="1">((+O18*COS($N$3)-P18*SIN($N$3))*$R$3)+$N$7</f>
+        <f t="shared" ref="C18" si="2">((+P18*COS($O$3)-Q18*SIN($O$3))*$S$3)+$O$7</f>
         <v>31.397459621556237</v>
       </c>
       <c r="D18" s="23">
-        <f t="shared" ref="D18" si="2">((O18*SIN($N$3)+P18*COS($N$3))*$R$4)+$N$9</f>
+        <f t="shared" ref="D18" si="3">((P18*SIN($O$3)+Q18*COS($O$3))*$S$4)+$O$9</f>
         <v>24.315353299545848</v>
       </c>
       <c r="E18" s="23">
-        <f t="shared" ref="E18" si="3">R$3*(($M18/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E18" si="4">S$3*(($N18/3.1416*180)+$O$5)</f>
         <v>179.99971938845687</v>
       </c>
       <c r="F18" s="11">
         <v>4</v>
       </c>
       <c r="G18" s="25">
-        <f t="shared" ref="G18" si="4">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G18" si="5">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I18" s="1"/>
@@ -20451,18 +21169,22 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="70">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="31"/>
       <c r="C19" s="23"/>
@@ -20480,18 +21202,22 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="69">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="31"/>
       <c r="C20" s="23"/>
@@ -20509,18 +21235,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="69">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="31"/>
       <c r="C21" s="23"/>
@@ -20538,18 +21268,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="69">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="31"/>
       <c r="C22" s="23"/>
@@ -20567,18 +21301,22 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="31"/>
       <c r="C23" s="23"/>
@@ -20596,18 +21334,22 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="69">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="31"/>
       <c r="C24" s="23"/>
@@ -20625,18 +21367,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="69">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="31"/>
       <c r="C25" s="23"/>
@@ -20654,25 +21400,105 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="69">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20680,8 +21506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G95"/>
+    <sheetView topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
